--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1899.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1899.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6593D232-4E77-4E30-BFAE-836197FD0194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB53748-06A6-40AB-AB49-1305ABFA285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -214,12 +219,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -239,6 +238,12 @@
   </si>
   <si>
     <t>стр. VII, 15, 93</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,11 +655,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -667,19 +672,19 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="10" max="10" width="9.41796875" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -711,31 +716,31 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -799,7 +804,7 @@
         <v>-2.4646650196835651E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -863,7 +868,7 @@
         <v>-3.9783090597943271E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -927,7 +932,7 @@
         <v>3.1625345336934174E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -991,7 +996,7 @@
         <v>-3.655159607424352E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>-4.7378011274787468E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>1.9073578203524733E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>4.1150099543912688E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>-2.4957934005431781E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1314,7 @@
         <v>4.7868726787292815E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>1.5339968019404182E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>-8.3147816807027652E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>-3.571385912381686E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>-1.7150727282029266E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>3.3845252512264778E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>1.1454898665036239E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>-6.410722615466824E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>4.5060365519681511E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1876,7 +1881,7 @@
         <v>-1.5953093388546336E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>-1.3272004780663593E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>2.807116410275512E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>3.2564121302911531E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2128,7 +2133,7 @@
         <v>-9.6596791492160605E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2191,7 +2196,7 @@
         <v>3.757424572436463E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>2.312085691937682E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2317,7 +2322,7 @@
         <v>-4.4652578586898528E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>4.8626540807532592E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2443,7 +2448,7 @@
         <v>9.591847022893063E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2506,7 +2511,7 @@
         <v>-4.0585658821754578E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>3.8627838487535371E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>-3.4355763045041954E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2695,7 +2700,7 @@
         <v>2.7618775070450852E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2758,7 +2763,7 @@
         <v>-2.9739815572046524E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2821,7 +2826,7 @@
         <v>1.8455220556354845E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2884,7 +2889,7 @@
         <v>-1.358584977017685E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>3.1781341378938066E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>2.0593111663721686E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>3.3242710977553713E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>-4.4076347097259827E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3199,7 +3204,7 @@
         <v>9.7135124656944072E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3262,7 +3267,7 @@
         <v>-1.6172315894401379E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3325,7 +3330,7 @@
         <v>2.4284571559167745E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>3.6271446079517489E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3451,7 +3456,7 @@
         <v>2.8855786659669036E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>3.6536965243811892E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3577,7 +3582,7 @@
         <v>-1.3859434298172602E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>-3.7863586397026694E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>4.9281317742533304E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>4.9118503475860109E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3829,7 +3834,7 @@
         <v>5.001203040153257E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3892,7 +3897,7 @@
         <v>3.4708185377400724E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3955,14 +3960,14 @@
         <v>-1.7154637539245954E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
@@ -3993,7 +3998,7 @@
         <v>3013114</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4">
         <f>B52-B54</f>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1899.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1899.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB53748-06A6-40AB-AB49-1305ABFA285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD7715D-AA0A-4205-9262-4AF98A89A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>губ</t>
   </si>
   <si>
-    <t>чж PYY</t>
-  </si>
-  <si>
     <t>р</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>чс-ж</t>
+  </si>
+  <si>
+    <t>чж MYY</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -689,55 +689,55 @@
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3899,7 +3899,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3">
         <v>97143469</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1899.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1899.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD7715D-AA0A-4205-9262-4AF98A89A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589AC6E3-6F2E-48EA-81D9-706A7B3F77F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -672,7 +672,8 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
